--- a/biology/Biologie cellulaire et moléculaire/Régulation_post-transcriptionnelle/Régulation_post-transcriptionnelle.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Régulation_post-transcriptionnelle/Régulation_post-transcriptionnelle.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>R%C3%A9gulation_post-transcriptionnelle</t>
+          <t>Régulation_post-transcriptionnelle</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La régulation post-transcriptionnelle est une phase de la régulation de l'expression des gènes comprenant tous les mécanismes affectant directement les molécules d'ARN  produites lors de la transcription.
 Elle permet aux cellules de s’adapter rapidement aux changements de leur environnement.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>R%C3%A9gulation_post-transcriptionnelle</t>
+          <t>Régulation_post-transcriptionnelle</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,20 +525,13 @@
           <t>Maturation de l’ARN</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le tout premier produit de la transcription d’un gène est l’ARN transcrit primaire.
 Il se compose d’un enchaînement d’introns (séquences non codantes) et d’exons (séquences codantes).
 Avant de devenir un ARNm fonctionnel, le transcrit primaire subit un épissage.
-Épissage différentiel de l’ARN
-Au cours de l’épissage, les introns sont retirés de la séquence de bases et les exons sont assemblés.
-Plusieurs molécules d’ARNm différentes peuvent être produites à partir d’un seul et même transcrit primaire : des exons peuvent être supprimés au même titre que des introns.
-Ce sont des protéines régulatrices, spécifiques à chaque type de cellule, qui déterminent quels sont les exons à conserver en se liant aux séquences régulatrices du transcrit primaire.
-Ce processus permet d’augmenter le nombre de protéines qu'il est possible de synthétiser.
-Ajout de la coiffe et polyadénylation
-Une coiffe est ajoutée à extrémité 5’ de l’ARN pour le protéger de la dégradation par des exonucléases.
-La coiffe joue également un rôle dans le recrutement des ribosomes.
-La polyadénylation est une étape au cours de laquelle une queue poly-A est ajoutée à l’extrémité 3’ de l’ARN.
 </t>
         </is>
       </c>
@@ -537,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>R%C3%A9gulation_post-transcriptionnelle</t>
+          <t>Régulation_post-transcriptionnelle</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -552,10 +557,91 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Maturation de l’ARN</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Épissage différentiel de l’ARN</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Au cours de l’épissage, les introns sont retirés de la séquence de bases et les exons sont assemblés.
+Plusieurs molécules d’ARNm différentes peuvent être produites à partir d’un seul et même transcrit primaire : des exons peuvent être supprimés au même titre que des introns.
+Ce sont des protéines régulatrices, spécifiques à chaque type de cellule, qui déterminent quels sont les exons à conserver en se liant aux séquences régulatrices du transcrit primaire.
+Ce processus permet d’augmenter le nombre de protéines qu'il est possible de synthétiser.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Régulation_post-transcriptionnelle</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Biologie cellulaire et moléculaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/R%C3%A9gulation_post-transcriptionnelle</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Maturation de l’ARN</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Ajout de la coiffe et polyadénylation</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une coiffe est ajoutée à extrémité 5’ de l’ARN pour le protéger de la dégradation par des exonucléases.
+La coiffe joue également un rôle dans le recrutement des ribosomes.
+La polyadénylation est une étape au cours de laquelle une queue poly-A est ajoutée à l’extrémité 3’ de l’ARN.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Régulation_post-transcriptionnelle</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Biologie cellulaire et moléculaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/R%C3%A9gulation_post-transcriptionnelle</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Initiation de la traduction</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Des protéines de régulation peuvent se fixer aux séquences non traduites 5’ ou 3’ UTR : elles empêchent ainsi les ribosomes de se fixer à l’ARNm, inhibant ainsi le processus de traduction au moment de son initiation.
 Il existe des facteurs protéiques[Quoi ?] nécessaires à l’initiation de la traduction.
@@ -564,31 +650,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>R%C3%A9gulation_post-transcriptionnelle</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Régulation_post-transcriptionnelle</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Biologie cellulaire et moléculaire/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/R%C3%A9gulation_post-transcriptionnelle</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Dégradation des ARNm</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Au sein d'une cellule, le mode de synthèse protéique est en partie déterminé par la durée de vie des ARNm dans le cytoplasme.
 C'est dans la séquence non traduite (UTR) de l'extrémité 3' qu'on retrouve les séquences nucléotidiques qui influent sur la durée de vie des ARNm.
@@ -600,31 +688,33 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>R%C3%A9gulation_post-transcriptionnelle</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Régulation_post-transcriptionnelle</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Biologie cellulaire et moléculaire/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/R%C3%A9gulation_post-transcriptionnelle</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Maturation et dégradation des protéines</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">La traduction peut être considérée comme la dernière étape au cours de laquelle l'expression génique peut s'exercer.
 Avant de devenir des protéines fonctionnelles, les polypeptides doivent souvent passer par une étape de maturation : le repliement leur confère des propriétés fonctionnelles.
